--- a/ch01/전체 스케줄.xlsx
+++ b/ch01/전체 스케줄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\OpenAI_API\ch01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF1722C-1BBB-4E24-96DB-E18C52C79319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F458DBB9-8CC8-4644-B39C-997EDC8F9E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15930" yWindow="0" windowWidth="16110" windowHeight="15480" xr2:uid="{2F407E23-8EA6-44E4-93B3-8C85B882413B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>09:30 ~ 10:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,22 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수정 전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch01-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과정 소개, 실습 환경 소개 및 설치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,26 +161,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch02-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OpenAI 과금체계 확인, 프롬프트 조정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch03, ch04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch05(계속)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stop sequence, assistants 기능 - 영어회화 연습하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,55 +173,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Day1 리뷰, Streamlit 설치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch06 (계속), ch07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Streamlit 플레이그라운드, 기본 기능 연습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch07(계속)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bot UI, Echo-bot 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gpt-like 봇 + OpenAI 연결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ch08(계속) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이미지 업로드 기능 챗봇 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소스 리팩토링, Streamlit 앱 스토어에 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -670,21 +610,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E967FB-5EA3-4F24-9D30-E02679CDEB49}">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="67.25" customWidth="1"/>
+    <col min="5" max="5" width="67.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -698,13 +637,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -718,13 +654,10 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>2</v>
@@ -736,13 +669,10 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>3</v>
@@ -754,13 +684,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -769,7 +696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>4</v>
@@ -781,13 +708,10 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>5</v>
@@ -799,13 +723,10 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>6</v>
@@ -817,13 +738,10 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>7</v>
@@ -835,13 +753,10 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -855,13 +770,10 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>2</v>
@@ -873,13 +785,10 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>3</v>
@@ -891,13 +800,10 @@
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -906,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>4</v>
@@ -918,13 +824,10 @@
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>5</v>
@@ -936,13 +839,10 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>6</v>
@@ -954,13 +854,10 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>7</v>
@@ -972,10 +869,7 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ch01/전체 스케줄.xlsx
+++ b/ch01/전체 스케줄.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\OpenAI_API\ch01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F458DBB9-8CC8-4644-B39C-997EDC8F9E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5D988B-CF58-4D65-9CD1-AF16FDB1384A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15930" yWindow="0" windowWidth="16110" windowHeight="15480" xr2:uid="{2F407E23-8EA6-44E4-93B3-8C85B882413B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -153,22 +154,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Python 가상환경 생성, 최종 제작물 Demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Python, Json 기초 실습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OpenAI 과금체계 확인, 프롬프트 조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stop sequence, assistants 기능 - 영어회화 연습하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>멀티모달 API - 이미지, 오디오</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,31 +166,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Streamlit 플레이그라운드, 기본 기능 연습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bot UI, Echo-bot 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gpt-like 봇 + OpenAI 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 업로드 기능 챗봇 완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소스 리팩토링, Streamlit 앱 스토어에 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rag, 바이브코딩 데모 및 실습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>File업로드, 웹서치 기능연결, API함수화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python 가상환경 생성, 최종 제작물 Demo, OpenAI 과금체계 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 Text 출력(completions Vs. responses), 프롬프트 실습, 튜닝 파라미터 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop sequence, assistants 기능 - 텍스트 기반 인터뷰 봇 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스 리팩토링, 바이브코딩 데모 및 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rag, LangChain 적용 시연, Copilot 적용 실습, Q&amp;A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Streamlit - OpenAI 연결, gpt-like 봇, Ch.7의 인터뷰 봇 확장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Streamlit - Bot UI, Echo-bot 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Streamlit - 플레이그라운드, 기본 기능 연습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Streamlit - 이미지 업로드 기능 챗봇 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +614,7 @@
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -669,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -684,7 +685,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -708,7 +709,7 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -723,7 +724,7 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -738,7 +739,7 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -753,7 +754,7 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -770,7 +771,7 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -785,7 +786,7 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -800,7 +801,7 @@
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -824,7 +825,7 @@
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -839,7 +840,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -854,7 +855,7 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -869,7 +870,7 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -880,4 +881,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAB8EA3-CF98-4078-A6A5-2177C7BF664A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ch01/전체 스케줄.xlsx
+++ b/ch01/전체 스케줄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\OpenAI_API\ch01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5D988B-CF58-4D65-9CD1-AF16FDB1384A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC5082A-A43C-461C-91EB-7B525C594EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15930" yWindow="0" windowWidth="16110" windowHeight="15480" xr2:uid="{2F407E23-8EA6-44E4-93B3-8C85B882413B}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/ch01/전체 스케줄.xlsx
+++ b/ch01/전체 스케줄.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\OpenAI_API\ch01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC5082A-A43C-461C-91EB-7B525C594EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BCB603-BFF9-412F-B258-5725CDD4CAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15930" yWindow="0" windowWidth="16110" windowHeight="15480" xr2:uid="{2F407E23-8EA6-44E4-93B3-8C85B882413B}"/>
+    <workbookView xWindow="-15885" yWindow="60" windowWidth="16110" windowHeight="15480" xr2:uid="{2F407E23-8EA6-44E4-93B3-8C85B882413B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 Text 출력(completions Vs. responses), 프롬프트 실습, 튜닝 파라미터 실습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stop sequence, assistants 기능 - 텍스트 기반 인터뷰 봇 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,6 +199,10 @@
   </si>
   <si>
     <t>Streamlit - 이미지 업로드 기능 챗봇 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 Text 출력, 프롬프트 실습, 튜닝 파라미터 실습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,17 +245,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -264,18 +285,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,14 +650,15 @@
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="67.25" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9" style="8"/>
+    <col min="5" max="5" width="59.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -631,10 +668,10 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -645,232 +682,236 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
-        <v>36</v>
+      <c r="E7" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
-        <v>37</v>
+      <c r="E10" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E12" t="s">
-        <v>42</v>
+      <c r="E12" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
-        <v>41</v>
+      <c r="E13" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>4</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
-        <v>40</v>
+      <c r="E15" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>5</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E16" t="s">
-        <v>43</v>
+      <c r="E16" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>6</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E17" t="s">
-        <v>38</v>
+      <c r="E17" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E18" t="s">
-        <v>39</v>
+      <c r="E18" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
